--- a/Documents/Ministore_Testcases.xlsx
+++ b/Documents/Ministore_Testcases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ministore\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1769F9B6-0A53-433C-98FA-10C5C0485FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E221A89-12CC-4310-B1B9-23A3D1454A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="113">
   <si>
     <t>Thiết kế</t>
   </si>
@@ -207,12 +207,6 @@
     <t>2.4.3</t>
   </si>
   <si>
-    <t>Năm bắt đầu: 01-09-2022; Năm kết thúc: 31-12-2022</t>
-  </si>
-  <si>
-    <t>Năm bắt đầu: 31-12-2022; Năm kết thúc: 01-09-2022</t>
-  </si>
-  <si>
     <t>Quản lý khuyến mãi</t>
   </si>
   <si>
@@ -364,6 +358,33 @@
   </si>
   <si>
     <t>9.3.2</t>
+  </si>
+  <si>
+    <t>Ngày bắt đầu: 01-09-2022; Ngày kết thúc: 31-12-2022</t>
+  </si>
+  <si>
+    <t>Ngày bắt đầu: 31-12-2022; Ngày kết thúc: 01-09-2022</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách các đợt khuyến mãi trong khoảng thời gian đó</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách các đợt khuyến mãi đã Expired</t>
+  </si>
+  <si>
+    <t>Status: Expired</t>
+  </si>
+  <si>
+    <t>ad</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách các đợt khuyến mãi có thông tin bao gồm ký tự ad</t>
+  </si>
+  <si>
+    <t>Thông báo yêu cầu chọn sản phẩm áp dụng khuyến mãi</t>
+  </si>
+  <si>
+    <t>Thêm sản phẩm thành công và hiển thị ra danh sách các đợt khuyến mãi</t>
   </si>
 </sst>
 </file>
@@ -469,10 +490,10 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -912,8 +933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1191,7 +1212,7 @@
         <v>42</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>34</v>
@@ -1206,7 +1227,7 @@
         <v>44</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>45</v>
@@ -1229,7 +1250,7 @@
         <v>3</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -1240,7 +1261,7 @@
         <v>3.1</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -1248,24 +1269,32 @@
     </row>
     <row r="26" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B26" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
+      <c r="D26" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="F26" s="7"/>
     </row>
     <row r="27" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B27" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
+      <c r="D27" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>106</v>
+      </c>
       <c r="F27" s="7"/>
     </row>
     <row r="28" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
@@ -1273,10 +1302,14 @@
         <v>3.2</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
+        <v>56</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>107</v>
+      </c>
       <c r="F28" s="7"/>
     </row>
     <row r="29" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
@@ -1284,10 +1317,14 @@
         <v>3.3</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
+        <v>69</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>110</v>
+      </c>
       <c r="F29" s="7"/>
     </row>
     <row r="30" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1295,7 +1332,7 @@
         <v>3.4</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
@@ -1303,35 +1340,41 @@
     </row>
     <row r="31" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B31" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
+      <c r="E31" s="7" t="s">
+        <v>111</v>
+      </c>
       <c r="F31" s="7"/>
     </row>
     <row r="32" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B32" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
+      <c r="E32" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B33" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
+      <c r="E33" s="7" t="s">
+        <v>112</v>
+      </c>
       <c r="F33" s="7"/>
     </row>
     <row r="34" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1339,7 +1382,7 @@
         <v>3.5</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
@@ -1350,7 +1393,7 @@
         <v>3.6</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
@@ -1361,7 +1404,7 @@
         <v>4</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -1370,7 +1413,7 @@
     <row r="37" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B37" s="7"/>
       <c r="C37" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
@@ -1379,7 +1422,7 @@
     <row r="38" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B38" s="7"/>
       <c r="C38" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
@@ -1388,7 +1431,7 @@
     <row r="39" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B39" s="7"/>
       <c r="C39" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
@@ -1399,7 +1442,7 @@
         <v>5</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
@@ -1408,7 +1451,7 @@
     <row r="41" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B41" s="6"/>
       <c r="C41" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
@@ -1417,7 +1460,7 @@
     <row r="42" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B42" s="6"/>
       <c r="C42" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
@@ -1426,7 +1469,7 @@
     <row r="43" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B43" s="6"/>
       <c r="C43" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
@@ -1437,7 +1480,7 @@
         <v>6</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -1446,7 +1489,7 @@
     <row r="45" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B45" s="6"/>
       <c r="C45" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
@@ -1455,7 +1498,7 @@
     <row r="46" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B46" s="6"/>
       <c r="C46" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
@@ -1464,7 +1507,7 @@
     <row r="47" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B47" s="6"/>
       <c r="C47" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
@@ -1475,7 +1518,7 @@
         <v>7</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
@@ -1484,7 +1527,7 @@
     <row r="49" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B49" s="6"/>
       <c r="C49" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
@@ -1493,7 +1536,7 @@
     <row r="50" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B50" s="6"/>
       <c r="C50" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
@@ -1502,7 +1545,7 @@
     <row r="51" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B51" s="6"/>
       <c r="C51" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
@@ -1513,7 +1556,7 @@
         <v>8</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -1522,7 +1565,7 @@
     <row r="53" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B53" s="6"/>
       <c r="C53" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
@@ -1531,7 +1574,7 @@
     <row r="54" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B54" s="6"/>
       <c r="C54" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
@@ -1540,7 +1583,7 @@
     <row r="55" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B55" s="6"/>
       <c r="C55" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
@@ -1551,7 +1594,7 @@
         <v>9</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
@@ -1562,7 +1605,7 @@
         <v>9.1</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
@@ -1570,7 +1613,7 @@
     </row>
     <row r="58" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B58" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>42</v>
@@ -1581,7 +1624,7 @@
     </row>
     <row r="59" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B59" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>44</v>
@@ -1595,7 +1638,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
@@ -1606,7 +1649,7 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
@@ -1614,10 +1657,10 @@
     </row>
     <row r="62" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B62" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
@@ -1625,10 +1668,10 @@
     </row>
     <row r="63" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B63" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
@@ -1639,7 +1682,7 @@
         <v>9.4</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
@@ -1650,7 +1693,7 @@
         <v>9.5</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
@@ -1661,7 +1704,7 @@
         <v>10</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
@@ -1670,7 +1713,7 @@
     <row r="67" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B67" s="6"/>
       <c r="C67" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
@@ -1679,7 +1722,7 @@
     <row r="68" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B68" s="6"/>
       <c r="C68" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
@@ -1688,7 +1731,7 @@
     <row r="69" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B69" s="6"/>
       <c r="C69" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
@@ -1699,7 +1742,7 @@
         <v>11</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
